--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H2">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I2">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J2">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N2">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P2">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q2">
-        <v>0.04410496621466665</v>
+        <v>0.1045029921102222</v>
       </c>
       <c r="R2">
-        <v>0.3969446959319999</v>
+        <v>0.9405269289920001</v>
       </c>
       <c r="S2">
-        <v>4.312194300531208E-08</v>
+        <v>4.782771783907723E-08</v>
       </c>
       <c r="T2">
-        <v>4.312194300531208E-08</v>
+        <v>4.782771783907721E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H3">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I3">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J3">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N3">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O3">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P3">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q3">
-        <v>3.134848107348444</v>
+        <v>65.83656438727357</v>
       </c>
       <c r="R3">
-        <v>28.213632966136</v>
+        <v>592.529079485462</v>
       </c>
       <c r="S3">
-        <v>3.064977779541685E-06</v>
+        <v>3.013131549082938E-05</v>
       </c>
       <c r="T3">
-        <v>3.064977779541685E-06</v>
+        <v>3.013131549082937E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H4">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I4">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J4">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N4">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O4">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P4">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q4">
-        <v>371.2706734338855</v>
+        <v>3077.355519000354</v>
       </c>
       <c r="R4">
-        <v>3341.43606090497</v>
+        <v>27696.19967100318</v>
       </c>
       <c r="S4">
-        <v>0.0003629956939868579</v>
+        <v>0.001408408395599219</v>
       </c>
       <c r="T4">
-        <v>0.0003629956939868579</v>
+        <v>0.001408408395599219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H5">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I5">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J5">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N5">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P5">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q5">
-        <v>0.1486978311724444</v>
+        <v>14.04681062127623</v>
       </c>
       <c r="R5">
-        <v>1.338280480552</v>
+        <v>126.421295591486</v>
       </c>
       <c r="S5">
-        <v>1.453836143898774E-07</v>
+        <v>6.428781428810743E-06</v>
       </c>
       <c r="T5">
-        <v>1.453836143898774E-07</v>
+        <v>6.42878142881074E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I6">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J6">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N6">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P6">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q6">
-        <v>1.204062876634666</v>
+        <v>0.4756199292871111</v>
       </c>
       <c r="R6">
-        <v>10.836565889712</v>
+        <v>4.280579363584</v>
       </c>
       <c r="S6">
-        <v>1.177226403220466E-06</v>
+        <v>2.176762149795008E-07</v>
       </c>
       <c r="T6">
-        <v>1.177226403220466E-06</v>
+        <v>2.176762149795007E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I7">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J7">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N7">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O7">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P7">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q7">
-        <v>85.58116134984176</v>
+        <v>299.6390961261138</v>
       </c>
       <c r="R7">
-        <v>770.2304521485759</v>
+        <v>2696.751865135024</v>
       </c>
       <c r="S7">
-        <v>8.367370567963569E-05</v>
+        <v>0.0001371353475502456</v>
       </c>
       <c r="T7">
-        <v>8.367370567963569E-05</v>
+        <v>0.0001371353475502456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I8">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J8">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N8">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O8">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P8">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q8">
-        <v>10135.6666478125</v>
+        <v>14005.83451997714</v>
       </c>
       <c r="R8">
-        <v>91220.9998303125</v>
+        <v>126052.5106797942</v>
       </c>
       <c r="S8">
-        <v>0.009909760215675445</v>
+        <v>0.00641002796183813</v>
       </c>
       <c r="T8">
-        <v>0.009909760215675443</v>
+        <v>0.006410027961838129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I9">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J9">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N9">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P9">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q9">
-        <v>4.059441684625777</v>
+        <v>63.93063910891911</v>
       </c>
       <c r="R9">
-        <v>36.53497516163199</v>
+        <v>575.375751980272</v>
       </c>
       <c r="S9">
-        <v>3.968963769427159E-06</v>
+        <v>2.925903370640586E-05</v>
       </c>
       <c r="T9">
-        <v>3.968963769427158E-06</v>
+        <v>2.925903370640585E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H10">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I10">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J10">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N10">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P10">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q10">
-        <v>8.029366729739332</v>
+        <v>7.079855314460445</v>
       </c>
       <c r="R10">
-        <v>72.26430056765399</v>
+        <v>63.71869783014401</v>
       </c>
       <c r="S10">
-        <v>7.850406069995567E-06</v>
+        <v>3.240226097683027E-06</v>
       </c>
       <c r="T10">
-        <v>7.850406069995569E-06</v>
+        <v>3.240226097683026E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H11">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I11">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J11">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N11">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O11">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P11">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q11">
-        <v>570.7031941350768</v>
+        <v>4460.287125285688</v>
       </c>
       <c r="R11">
-        <v>5136.328747215692</v>
+        <v>40142.58412757119</v>
       </c>
       <c r="S11">
-        <v>0.0005579832096608338</v>
+        <v>0.00204133249968989</v>
       </c>
       <c r="T11">
-        <v>0.000557983209660834</v>
+        <v>0.002041332499689889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H12">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I12">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J12">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N12">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O12">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P12">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q12">
-        <v>67590.31122455849</v>
+        <v>208484.2872508304</v>
       </c>
       <c r="R12">
-        <v>608312.8010210264</v>
+        <v>1876358.585257474</v>
       </c>
       <c r="S12">
-        <v>0.06608384040361168</v>
+        <v>0.09541667145756746</v>
       </c>
       <c r="T12">
-        <v>0.06608384040361169</v>
+        <v>0.09541667145756745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H13">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I13">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J13">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N13">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P13">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q13">
-        <v>27.07063446300489</v>
+        <v>951.6415254729726</v>
       </c>
       <c r="R13">
-        <v>243.635710167044</v>
+        <v>8564.773729256753</v>
       </c>
       <c r="S13">
-        <v>2.646727696717172E-05</v>
+        <v>0.0004355362602083639</v>
       </c>
       <c r="T13">
-        <v>2.646727696717173E-05</v>
+        <v>0.0004355362602083637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H14">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I14">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J14">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N14">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P14">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q14">
-        <v>0.04307717104599999</v>
+        <v>0.03683797838933334</v>
       </c>
       <c r="R14">
-        <v>0.3876945394139999</v>
+        <v>0.331541805504</v>
       </c>
       <c r="S14">
-        <v>4.211705560853542E-08</v>
+        <v>1.685957885596959E-08</v>
       </c>
       <c r="T14">
-        <v>4.211705560853542E-08</v>
+        <v>1.685957885596958E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H15">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I15">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J15">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N15">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O15">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P15">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q15">
-        <v>3.061795523574666</v>
+        <v>23.20781335684934</v>
       </c>
       <c r="R15">
-        <v>27.55615971217199</v>
+        <v>208.870320211644</v>
       </c>
       <c r="S15">
-        <v>2.993553411171211E-06</v>
+        <v>1.062148294971912E-05</v>
       </c>
       <c r="T15">
-        <v>2.993553411171212E-06</v>
+        <v>1.062148294971912E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H16">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I16">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J16">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N16">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O16">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P16">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q16">
-        <v>362.6188086401182</v>
+        <v>1084.787658382671</v>
       </c>
       <c r="R16">
-        <v>3263.569277761064</v>
+        <v>9763.088925444037</v>
       </c>
       <c r="S16">
-        <v>0.0003545366642551351</v>
+        <v>0.0004964730386448389</v>
       </c>
       <c r="T16">
-        <v>0.0003545366642551351</v>
+        <v>0.0004964730386448389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H17">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I17">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J17">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N17">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P17">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q17">
-        <v>0.1452326678226666</v>
+        <v>4.951591295681334</v>
       </c>
       <c r="R17">
-        <v>1.307094010404</v>
+        <v>44.56432166113201</v>
       </c>
       <c r="S17">
-        <v>1.419956835218219E-07</v>
+        <v>2.266186896299519E-06</v>
       </c>
       <c r="T17">
-        <v>1.419956835218219E-07</v>
+        <v>2.266186896299518E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H18">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I18">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J18">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N18">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P18">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q18">
-        <v>106.413271192736</v>
+        <v>60.51977700173867</v>
       </c>
       <c r="R18">
-        <v>957.7194407346238</v>
+        <v>544.677993015648</v>
       </c>
       <c r="S18">
-        <v>0.0001040415039215253</v>
+        <v>2.769798988214708E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001040415039215252</v>
+        <v>2.769798988214707E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H19">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I19">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J19">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N19">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O19">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P19">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q19">
-        <v>7563.53468613186</v>
+        <v>38127.27382079101</v>
       </c>
       <c r="R19">
-        <v>68071.81217518674</v>
+        <v>343145.464387119</v>
       </c>
       <c r="S19">
-        <v>0.007394956614786382</v>
+        <v>0.01744964864116703</v>
       </c>
       <c r="T19">
-        <v>0.007394956614786383</v>
+        <v>0.01744964864116702</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H20">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I20">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J20">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N20">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O20">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P20">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q20">
-        <v>895775.0169388351</v>
+        <v>1782158.252163131</v>
       </c>
       <c r="R20">
-        <v>8061975.152449516</v>
+        <v>16039424.26946818</v>
       </c>
       <c r="S20">
-        <v>0.8758097452792905</v>
+        <v>0.8156375268101402</v>
       </c>
       <c r="T20">
-        <v>0.8758097452792905</v>
+        <v>0.8156375268101401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H21">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I21">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J21">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N21">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P21">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q21">
-        <v>358.7673677678293</v>
+        <v>8134.789532998793</v>
       </c>
       <c r="R21">
-        <v>3228.906309910464</v>
+        <v>73213.10579698913</v>
       </c>
       <c r="S21">
-        <v>0.0003507710653206563</v>
+        <v>0.003723036160095623</v>
       </c>
       <c r="T21">
-        <v>0.0003507710653206563</v>
+        <v>0.003723036160095622</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H22">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I22">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J22">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.040154</v>
+        <v>0.01586133333333333</v>
       </c>
       <c r="N22">
-        <v>0.120462</v>
+        <v>0.047584</v>
       </c>
       <c r="O22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="P22">
-        <v>0.000117739357997762</v>
+        <v>3.309839284807724E-05</v>
       </c>
       <c r="Q22">
-        <v>4.689503504915998</v>
+        <v>4.102999751036445</v>
       </c>
       <c r="R22">
-        <v>42.20553154424399</v>
+        <v>36.926997759328</v>
       </c>
       <c r="S22">
-        <v>4.584982604406861E-06</v>
+        <v>1.877813356572589E-06</v>
       </c>
       <c r="T22">
-        <v>4.584982604406861E-06</v>
+        <v>1.877813356572588E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H23">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I23">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J23">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2.854025333333333</v>
+        <v>9.992591333333333</v>
       </c>
       <c r="N23">
-        <v>8.562075999999999</v>
+        <v>29.977774</v>
       </c>
       <c r="O23">
-        <v>0.008368558809981951</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="P23">
-        <v>0.008368558809981953</v>
+        <v>0.02085188593987214</v>
       </c>
       <c r="Q23">
-        <v>333.3157793441679</v>
+        <v>2584.877254090173</v>
       </c>
       <c r="R23">
-        <v>2999.842014097511</v>
+        <v>23263.89528681156</v>
       </c>
       <c r="S23">
-        <v>0.0003258867486643877</v>
+        <v>0.00118301665302443</v>
       </c>
       <c r="T23">
-        <v>0.0003258867486643878</v>
+        <v>0.00118301665302443</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H24">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I24">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J24">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>338.0118816666666</v>
+        <v>467.0771686666667</v>
       </c>
       <c r="N24">
-        <v>1014.035645</v>
+        <v>1401.231506</v>
       </c>
       <c r="O24">
-        <v>0.9911167490922156</v>
+        <v>0.974666082227028</v>
       </c>
       <c r="P24">
-        <v>0.9911167490922157</v>
+        <v>0.9746660822270279</v>
       </c>
       <c r="Q24">
-        <v>39475.7160875401</v>
+        <v>120823.2288219238</v>
       </c>
       <c r="R24">
-        <v>355281.4447878609</v>
+        <v>1087409.059397314</v>
       </c>
       <c r="S24">
-        <v>0.03859587083539615</v>
+        <v>0.05529697456323813</v>
       </c>
       <c r="T24">
-        <v>0.03859587083539615</v>
+        <v>0.05529697456323812</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H25">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I25">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J25">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1353773333333333</v>
+        <v>2.132007333333334</v>
       </c>
       <c r="N25">
-        <v>0.406132</v>
+        <v>6.396022</v>
       </c>
       <c r="O25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251864</v>
       </c>
       <c r="P25">
-        <v>0.0003969527398046444</v>
+        <v>0.004448933440251863</v>
       </c>
       <c r="Q25">
-        <v>15.81044177797599</v>
+        <v>551.5063187967305</v>
       </c>
       <c r="R25">
-        <v>142.293976001784</v>
+        <v>4963.556869170575</v>
       </c>
       <c r="S25">
-        <v>1.545805444947757E-05</v>
+        <v>0.000252407017916361</v>
       </c>
       <c r="T25">
-        <v>1.545805444947757E-05</v>
+        <v>0.000252407017916361</v>
       </c>
     </row>
   </sheetData>
